--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -58,66 +55,66 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
@@ -127,33 +124,24 @@
     <t>wife</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
@@ -163,70 +151,73 @@
     <t>years</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -590,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3333333333333333</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -705,41 +696,17 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.3131313131313131</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>68</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,21 +718,21 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,21 +744,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,21 +770,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,21 +796,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>556</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>556</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,12 +822,12 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9">
         <v>0.7727272727272727</v>
@@ -886,16 +853,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7359307359307359</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L10">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,21 +874,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,21 +900,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,21 +926,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>0.7084745762711865</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L13">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,12 +952,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14">
         <v>0.6619718309859155</v>
@@ -1016,16 +983,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6452648475120385</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>804</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>804</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>442</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6438356164383562</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17">
-        <v>0.640625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5918367346938775</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5789473684210527</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5771428571428572</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L20">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5692307692307692</v>
+        <v>0.59375</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5686274509803921</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5571428571428572</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5449101796407185</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L24">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5441176470588235</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,12 +1264,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26">
         <v>0.5396825396825397</v>
@@ -1328,16 +1295,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,12 +1316,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28">
         <v>0.5138888888888888</v>
@@ -1380,16 +1347,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5096153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30">
-        <v>0.5060240963855421</v>
+        <v>0.49</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1427,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4871794871794872</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1453,15 +1420,15 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4736842105263158</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L32">
         <v>36</v>
@@ -1479,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33">
-        <v>0.46</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4444444444444444</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4342105263157895</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1557,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>0.4156626506024096</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L36">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="M36">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1583,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>97</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3834586466165413</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1609,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3693693693693694</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1635,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3651960784313725</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L39">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1661,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>259</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3579766536964981</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L40">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="M40">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1687,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>165</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3082191780821918</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L41">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1713,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>505</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>0.302158273381295</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1739,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>0.3007518796992481</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1765,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2871287128712871</v>
+        <v>0.2411194833153929</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1791,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>72</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>0.287037037037037</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1817,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2649006622516556</v>
+        <v>0.2013245033112583</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1843,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>111</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2612612612612613</v>
+        <v>0.1880877742946709</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1869,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>82</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2335844994617869</v>
+        <v>0.1854219948849105</v>
       </c>
       <c r="L48">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="M48">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1895,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>712</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49">
-        <v>0.2248803827751196</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L49">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1921,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50">
-        <v>0.2100313479623825</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="L50">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1947,47 +1914,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K51">
-        <v>0.2039735099337748</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L51">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>601</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1790281329923274</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L52">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="M52">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1999,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>642</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1503579952267303</v>
+        <v>0.1312649164677804</v>
       </c>
       <c r="L53">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M53">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2025,47 +1992,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1486486486486487</v>
+        <v>0.1293859649122807</v>
       </c>
       <c r="L54">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M54">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>315</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1407407407407407</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2077,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1402214022140221</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2103,99 +2070,99 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>233</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1295454545454545</v>
+        <v>0.1078066914498141</v>
       </c>
       <c r="L57">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>383</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1206140350877193</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="L58">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M58">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>401</v>
+        <v>994</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K59">
-        <v>0.1202749140893471</v>
+        <v>0.06169296987087518</v>
       </c>
       <c r="L59">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>256</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K60">
-        <v>0.1119221411192214</v>
+        <v>0.05904059040590406</v>
       </c>
       <c r="L60">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M60">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2207,85 +2174,33 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>365</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K61">
-        <v>0.07835820895522388</v>
+        <v>0.03892733564013841</v>
       </c>
       <c r="L61">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M61">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K62">
-        <v>0.06886657101865136</v>
-      </c>
-      <c r="L62">
-        <v>48</v>
-      </c>
-      <c r="M62">
-        <v>49</v>
-      </c>
-      <c r="N62">
-        <v>0.98</v>
-      </c>
-      <c r="O62">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63">
-        <v>0.04155844155844156</v>
-      </c>
-      <c r="L63">
-        <v>48</v>
-      </c>
-      <c r="M63">
-        <v>50</v>
-      </c>
-      <c r="N63">
-        <v>0.96</v>
-      </c>
-      <c r="O63">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
